--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -283,267 +283,271 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.
+このEncounterが知られている識別子（複数可）。</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
+予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
+内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.
+現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.
-このEncounterが知られている識別子（複数可）。</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
-予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
-内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.
-現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3389,13 +3393,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3446,7 +3450,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3475,7 +3479,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3504,7 +3508,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3557,7 +3561,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3586,11 +3590,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3612,10 +3616,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3670,7 +3674,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3699,7 +3703,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3725,13 +3729,13 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3781,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3810,7 +3814,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3833,16 +3837,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3892,7 +3896,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3921,7 +3925,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3944,16 +3948,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3979,13 +3983,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4003,7 +4007,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4021,18 +4025,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4058,10 +4062,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4112,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4164,13 +4168,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4221,7 +4225,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4250,7 +4254,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4279,7 +4283,7 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -4332,7 +4336,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4361,11 +4365,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4387,10 +4391,10 @@
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4445,7 +4449,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4478,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4497,16 +4501,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4532,13 +4536,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4556,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4585,7 +4589,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4608,16 +4612,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4667,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4696,7 +4700,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4719,16 +4723,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4754,13 +4758,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4778,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4793,21 +4797,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4830,16 +4834,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4865,13 +4869,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4889,7 +4893,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4908,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4913,12 +4917,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4941,16 +4945,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4976,13 +4980,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5000,7 +5004,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5018,22 +5022,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5052,16 +5056,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5126,21 +5130,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5163,16 +5167,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5222,7 +5226,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5237,25 +5241,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5274,16 +5278,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5333,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5348,10 +5352,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5362,7 +5366,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5388,10 +5392,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5442,7 +5446,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5457,21 +5461,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5494,13 +5498,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5551,7 +5555,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5580,7 +5584,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5609,7 +5613,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5662,7 +5666,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5691,11 +5695,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5717,10 +5721,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5775,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5804,7 +5808,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5827,16 +5831,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5862,13 +5866,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5886,7 +5890,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5901,21 +5905,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5938,13 +5942,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5995,7 +5999,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6013,18 +6017,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6047,13 +6051,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6104,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6119,21 +6123,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6156,16 +6160,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6215,7 +6219,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6230,21 +6234,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6267,16 +6271,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6326,7 +6330,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6341,21 +6345,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6378,16 +6382,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6437,7 +6441,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6452,25 +6456,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6489,16 +6493,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6527,10 +6531,10 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6548,7 +6552,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6563,25 +6567,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6600,16 +6604,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6659,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6674,21 +6678,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6714,10 +6718,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6768,7 +6772,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6786,7 +6790,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6797,7 +6801,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6820,13 +6824,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6877,7 +6881,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6906,7 +6910,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6935,7 +6939,7 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>135</v>
@@ -6988,7 +6992,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7017,11 +7021,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7043,10 +7047,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -7101,7 +7105,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7130,11 +7134,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7153,16 +7157,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7212,7 +7216,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7227,21 +7231,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7264,13 +7268,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7300,10 +7304,10 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7321,7 +7325,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7350,7 +7354,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7373,13 +7377,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7430,7 +7434,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7448,7 +7452,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7459,7 +7463,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7482,16 +7486,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7541,7 +7545,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7559,7 +7563,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7570,7 +7574,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7596,13 +7600,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7652,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7670,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7681,7 +7685,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7704,13 +7708,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7761,7 +7765,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7790,7 +7794,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7819,7 +7823,7 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>135</v>
@@ -7872,7 +7876,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7901,11 +7905,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7927,10 +7931,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>135</v>
@@ -7985,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8018,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8040,10 +8044,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8094,7 +8098,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8118,12 +8122,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8146,16 +8150,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8205,7 +8209,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8223,7 +8227,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8234,7 +8238,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8257,16 +8261,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8295,10 +8299,10 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8320,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8334,18 +8338,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8368,16 +8372,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8403,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8451,12 +8455,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8479,19 +8483,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8516,13 +8520,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8540,7 +8544,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8558,18 +8562,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8592,16 +8596,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8630,10 +8634,10 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8655,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8669,18 +8673,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8703,16 +8707,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8741,10 +8745,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8762,7 +8766,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8780,18 +8784,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8814,16 +8818,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8873,7 +8877,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8891,18 +8895,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8925,16 +8929,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8960,13 +8964,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8984,7 +8988,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9002,18 +9006,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9039,13 +9043,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9095,7 +9099,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9113,7 +9117,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9128,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9147,13 +9151,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9204,7 +9208,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9233,7 +9237,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9262,7 +9266,7 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>135</v>
@@ -9315,7 +9319,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9344,11 +9348,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9370,10 +9374,10 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9428,7 +9432,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9457,7 +9461,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,16 +9484,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9539,7 +9543,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9554,21 +9558,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9594,13 +9598,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9629,10 +9633,10 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9650,7 +9654,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9668,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9679,7 +9683,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9702,16 +9706,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9737,13 +9741,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9761,7 +9765,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9794,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9813,16 +9817,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9872,7 +9876,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9890,7 +9894,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9901,7 +9905,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9924,16 +9928,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9983,7 +9987,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9998,21 +10002,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10035,16 +10039,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10094,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10109,10 +10113,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -421,33 +421,51 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>associatedEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {encounter-associatedEncounter}
+</t>
+  </si>
+  <si>
+    <t>関連するEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -455,6 +473,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -560,6 +581,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1871,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1881,7 +1905,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2819,7 +2843,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2838,17 +2862,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2885,16 +2907,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2915,7 +2935,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2926,43 +2946,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3037,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3028,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3039,11 +3057,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3056,22 +3074,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3119,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3131,24 +3153,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3156,32 +3178,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3206,13 +3226,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3230,13 +3250,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3245,21 +3265,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3267,31 +3287,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3317,13 +3337,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3341,13 +3361,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3356,16 +3376,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3381,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3401,7 +3421,9 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3450,25 +3472,25 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3479,18 +3501,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3502,17 +3524,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3561,25 +3581,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3590,11 +3610,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3607,26 +3627,24 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3692,7 +3710,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3703,41 +3721,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3761,13 +3781,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3785,25 +3805,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3814,7 +3834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3837,16 +3857,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3872,13 +3892,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3896,7 +3916,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3914,7 +3934,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3925,7 +3945,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3945,19 +3965,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3983,13 +4003,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4007,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4025,18 +4045,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4044,10 +4064,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4056,18 +4076,20 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4092,13 +4114,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4116,13 +4138,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4134,18 +4156,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4156,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4171,10 +4193,10 @@
         <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4225,25 +4247,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4254,18 +4276,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4277,17 +4299,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4336,25 +4356,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4365,11 +4385,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4382,26 +4402,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4449,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4467,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4478,41 +4496,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4536,13 +4556,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4560,25 +4580,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4589,7 +4609,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4612,16 +4632,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4647,13 +4667,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4671,7 +4691,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4689,7 +4709,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4700,7 +4720,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4708,10 +4728,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4720,19 +4740,19 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4758,13 +4778,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4782,13 +4802,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4797,21 +4817,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4822,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4854,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4869,13 +4889,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4893,13 +4913,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4908,13 +4928,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>230</v>
@@ -4942,10 +4962,10 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>232</v>
@@ -4954,7 +4974,7 @@
         <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4980,13 +5000,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5019,25 +5039,25 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5053,19 +5073,19 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5091,13 +5111,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5115,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5130,32 +5150,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5167,16 +5187,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5226,13 +5246,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5241,25 +5261,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5275,19 +5295,19 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5337,7 +5357,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5352,16 +5372,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -5370,7 +5390,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5386,18 +5406,20 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5461,21 +5483,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5486,7 +5508,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5495,16 +5517,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5555,47 +5577,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5607,17 +5629,15 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5666,25 +5686,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5695,11 +5715,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5712,26 +5732,24 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5797,7 +5815,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5808,11 +5826,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5825,24 +5843,26 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5866,13 +5886,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5890,7 +5910,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5902,24 +5922,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5930,7 +5950,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5939,18 +5959,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5975,13 +5997,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5999,13 +6021,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6014,21 +6036,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6048,16 +6070,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6108,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6123,21 +6145,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6148,7 +6170,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6160,17 +6182,15 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6219,13 +6239,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6234,21 +6254,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6259,7 +6279,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6268,19 +6288,19 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6330,13 +6350,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6345,21 +6365,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6382,16 +6402,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6441,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6456,13 +6476,13 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>315</v>
@@ -6474,14 +6494,14 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6490,10 +6510,10 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>318</v>
@@ -6528,13 +6548,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6558,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6567,25 +6587,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6604,16 +6624,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6639,13 +6659,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6663,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6678,25 +6698,25 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6715,15 +6735,17 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6772,7 +6794,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6787,21 +6809,21 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6812,7 +6834,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6821,16 +6843,16 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6881,25 +6903,25 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6910,18 +6932,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6933,17 +6955,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -6992,25 +7012,25 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -7021,11 +7041,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7038,26 +7058,24 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7123,7 +7141,7 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -7134,41 +7152,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>339</v>
+        <v>184</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7216,44 +7236,44 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7265,10 +7285,10 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>348</v>
@@ -7276,7 +7296,9 @@
       <c r="L49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7301,13 +7323,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7325,10 +7347,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7340,21 +7362,21 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7377,13 +7399,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7410,13 +7432,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7434,7 +7456,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7474,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7485,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7486,17 +7508,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7545,13 +7565,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7563,7 +7583,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7574,7 +7594,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7585,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7597,16 +7617,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7656,13 +7676,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7674,7 +7694,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7685,7 +7705,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7711,12 +7731,14 @@
         <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7765,7 +7787,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7777,13 +7799,13 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7794,18 +7816,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7817,17 +7839,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -7876,25 +7896,25 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7905,11 +7925,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7922,26 +7942,24 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -7989,7 +8007,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8007,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8018,39 +8036,43 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8098,36 +8120,36 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8150,17 +8172,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8229,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8227,18 +8247,18 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8261,16 +8281,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8296,13 +8316,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8340,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8344,12 +8364,12 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8372,16 +8392,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8407,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>392</v>
@@ -8431,7 +8451,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8449,18 +8469,18 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,7 +8491,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8483,20 +8503,18 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8520,14 +8538,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8544,13 +8562,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8562,18 +8580,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8596,18 +8614,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8631,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>407</v>
@@ -8655,7 +8675,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8727,7 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>412</v>
@@ -8716,7 +8736,7 @@
         <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8806,7 +8826,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8818,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>419</v>
@@ -8827,7 +8847,7 @@
         <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8853,13 +8873,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8883,7 +8903,7 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -8895,18 +8915,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8929,16 +8949,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8964,13 +8984,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8988,7 +9008,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9028,7 +9048,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9040,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>431</v>
@@ -9049,7 +9069,7 @@
         <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9075,13 +9095,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9105,7 +9125,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9117,18 +9137,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9139,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9154,12 +9174,14 @@
         <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9208,25 +9230,25 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
@@ -9237,18 +9259,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9260,17 +9282,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9319,25 +9339,25 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
@@ -9348,11 +9368,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9365,26 +9385,24 @@
         <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9432,7 +9450,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9450,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
@@ -9461,41 +9479,43 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>439</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>186</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9543,31 +9563,31 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -9580,7 +9600,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -9595,16 +9615,16 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9630,13 +9650,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9657,7 +9677,7 @@
         <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -9669,16 +9689,16 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="71">
@@ -9706,7 +9726,7 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>453</v>
@@ -9741,7 +9761,7 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>456</v>
@@ -9783,7 +9803,7 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9794,7 +9814,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9817,16 +9837,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9852,13 +9872,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -9876,7 +9896,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9894,7 +9914,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9905,7 +9925,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9928,16 +9948,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>463</v>
+        <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9987,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10002,21 +10022,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>292</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10039,16 +10059,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>260</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10098,7 +10118,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10113,15 +10133,126 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
